--- a/server/items.xlsx
+++ b/server/items.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,6 +433,9 @@
       <c r="J1" t="str">
         <v>ReservedBy</v>
       </c>
+      <c r="K1" t="str">
+        <v>Approved</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -646,9 +649,102 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>test</v>
+      </c>
+      <c r="C9" t="str">
+        <v>test</v>
+      </c>
+      <c r="D9" t="str">
+        <v>other</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Excellent</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Taken</v>
+      </c>
+      <c r="G9" t="str">
+        <v>admin.mike@lsu.edu</v>
+      </c>
+      <c r="H9" t="str">
+        <v>photo-1763865475041-04mpl.jpg</v>
+      </c>
+      <c r="I9" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>admin test</v>
+      </c>
+      <c r="C10" t="str">
+        <v>This is a test to see if the admin can aprove</v>
+      </c>
+      <c r="D10" t="str">
+        <v>other</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Poor</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Available</v>
+      </c>
+      <c r="G10" t="str">
+        <v>admin.mike@lsu.edu</v>
+      </c>
+      <c r="H10" t="str">
+        <v>photo-1763868107950-0kdjg.jpg</v>
+      </c>
+      <c r="I10" t="str">
+        <v>9</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Lamp</v>
+      </c>
+      <c r="C11" t="str">
+        <v>A stock image of a lamp</v>
+      </c>
+      <c r="D11" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Excellent</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Available</v>
+      </c>
+      <c r="G11" t="str">
+        <v>alice@lsu.edu</v>
+      </c>
+      <c r="H11" t="str">
+        <v>photo-1763869213903-li17i.jpg</v>
+      </c>
+      <c r="I11" t="str">
+        <v>10</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/items.xlsx
+++ b/server/items.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,10 +431,10 @@
         <v>ImageFolder</v>
       </c>
       <c r="J1" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="K1" t="str">
         <v>ReservedBy</v>
-      </c>
-      <c r="K1" t="str">
-        <v>Approved</v>
       </c>
     </row>
     <row r="2">
@@ -463,6 +463,9 @@
         <v>calc-book.jpg</v>
       </c>
       <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -494,7 +497,10 @@
       <c r="I3">
         <v>2</v>
       </c>
-      <c r="J3" t="str">
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="str">
         <v>alice@college.edu</v>
       </c>
     </row>
@@ -526,6 +532,9 @@
       <c r="I4" t="str">
         <v>3</v>
       </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -555,7 +564,10 @@
       <c r="I5" t="str">
         <v>4</v>
       </c>
-      <c r="J5" t="str">
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="str">
         <v>alice@lsu.edu</v>
       </c>
     </row>
@@ -587,7 +599,10 @@
       <c r="I6" t="str">
         <v>5</v>
       </c>
-      <c r="J6" t="str">
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="str">
         <v>alice@lsu.edu</v>
       </c>
     </row>
@@ -619,6 +634,9 @@
       <c r="I7" t="str">
         <v>6</v>
       </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -648,103 +666,13 @@
       <c r="I8" t="str">
         <v>7</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="str">
-        <v>test</v>
-      </c>
-      <c r="C9" t="str">
-        <v>test</v>
-      </c>
-      <c r="D9" t="str">
-        <v>other</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Excellent</v>
-      </c>
-      <c r="F9" t="str">
-        <v>Taken</v>
-      </c>
-      <c r="G9" t="str">
-        <v>admin.mike@lsu.edu</v>
-      </c>
-      <c r="H9" t="str">
-        <v>photo-1763865475041-04mpl.jpg</v>
-      </c>
-      <c r="I9" t="str">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="str">
-        <v>admin test</v>
-      </c>
-      <c r="C10" t="str">
-        <v>This is a test to see if the admin can aprove</v>
-      </c>
-      <c r="D10" t="str">
-        <v>other</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Poor</v>
-      </c>
-      <c r="F10" t="str">
-        <v>Available</v>
-      </c>
-      <c r="G10" t="str">
-        <v>admin.mike@lsu.edu</v>
-      </c>
-      <c r="H10" t="str">
-        <v>photo-1763868107950-0kdjg.jpg</v>
-      </c>
-      <c r="I10" t="str">
-        <v>9</v>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Lamp</v>
-      </c>
-      <c r="C11" t="str">
-        <v>A stock image of a lamp</v>
-      </c>
-      <c r="D11" t="str">
-        <v>furniture</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Excellent</v>
-      </c>
-      <c r="F11" t="str">
-        <v>Available</v>
-      </c>
-      <c r="G11" t="str">
-        <v>alice@lsu.edu</v>
-      </c>
-      <c r="H11" t="str">
-        <v>photo-1763869213903-li17i.jpg</v>
-      </c>
-      <c r="I11" t="str">
-        <v>10</v>
-      </c>
-      <c r="K11" t="b">
+      <c r="J8" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/items.xlsx
+++ b/server/items.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,31 +439,31 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="str">
-        <v>Calculus I Textbook</v>
+        <v>Desk Lamp</v>
       </c>
       <c r="C2" t="str">
-        <v>10th ed, like new</v>
+        <v>Working well, I have just use for six months</v>
       </c>
       <c r="D2" t="str">
-        <v>textbooks</v>
+        <v>electronics</v>
       </c>
       <c r="E2" t="str">
         <v>Excellent</v>
       </c>
       <c r="F2" t="str">
-        <v>Taken</v>
+        <v>Available</v>
       </c>
       <c r="G2" t="str">
         <v>alice@college.edu</v>
       </c>
       <c r="H2" t="str">
-        <v>calc-book.jpg</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
+        <v>photo-1762821083439.jpg,photo-1762821083443.jpeg</v>
+      </c>
+      <c r="I2" t="str">
+        <v>3</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -471,153 +471,153 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="str">
-        <v>IKEA Desk Chair</v>
+        <v>Microwave</v>
       </c>
       <c r="C3" t="str">
-        <v>Black, good condition</v>
+        <v>I have been using it for two years and still working good</v>
       </c>
       <c r="D3" t="str">
-        <v>furniture</v>
+        <v>electronics</v>
       </c>
       <c r="E3" t="str">
-        <v>Good</v>
+        <v>Fair</v>
       </c>
       <c r="F3" t="str">
         <v>Reserved</v>
       </c>
       <c r="G3" t="str">
-        <v>prof.bob@college.edu</v>
+        <v>alice@college.edu</v>
       </c>
       <c r="H3" t="str">
-        <v>chair.jpg</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
+        <v>photo-1762821913662-bqmb4.jpg</v>
+      </c>
+      <c r="I3" t="str">
+        <v>4</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
       </c>
       <c r="K3" t="str">
-        <v>alice@college.edu</v>
+        <v>alice@lsu.edu</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="str">
-        <v>Desk Lamp</v>
+        <v>English Text Book</v>
       </c>
       <c r="C4" t="str">
-        <v>Working well, I have just use for six months</v>
+        <v>I read the book, and it was too good</v>
       </c>
       <c r="D4" t="str">
-        <v>electronics</v>
+        <v>textbooks</v>
       </c>
       <c r="E4" t="str">
         <v>Excellent</v>
       </c>
       <c r="F4" t="str">
-        <v>Available</v>
+        <v>Reserved</v>
       </c>
       <c r="G4" t="str">
-        <v>alice@college.edu</v>
+        <v>prof.bob@college.edu</v>
       </c>
       <c r="H4" t="str">
-        <v>photo-1762821083439.jpg,photo-1762821083443.jpeg</v>
+        <v>photo-1762825185346-6re99.jpg</v>
       </c>
       <c r="I4" t="str">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
       </c>
+      <c r="K4" t="str">
+        <v>alice@lsu.edu</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="str">
-        <v>Microwave</v>
+        <v>Watch</v>
       </c>
       <c r="C5" t="str">
-        <v>I have been using it for two years and still working good</v>
+        <v>I have been using it for like seven months and it still working</v>
       </c>
       <c r="D5" t="str">
         <v>electronics</v>
       </c>
       <c r="E5" t="str">
-        <v>Fair</v>
+        <v>Good</v>
       </c>
       <c r="F5" t="str">
-        <v>Reserved</v>
+        <v>Available</v>
       </c>
       <c r="G5" t="str">
         <v>alice@college.edu</v>
       </c>
       <c r="H5" t="str">
-        <v>photo-1762821913662-bqmb4.jpg</v>
+        <v>default.jpg</v>
       </c>
       <c r="I5" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
       </c>
-      <c r="K5" t="str">
-        <v>alice@lsu.edu</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="str">
-        <v>English Text Book</v>
+        <v>System Test Calculus Textbook</v>
       </c>
       <c r="C6" t="str">
-        <v>I read the book, and it was too good</v>
+        <v>Advanced Calculus - hardcover</v>
       </c>
       <c r="D6" t="str">
-        <v>textbooks</v>
+        <v>Books</v>
       </c>
       <c r="E6" t="str">
         <v>Excellent</v>
       </c>
       <c r="F6" t="str">
-        <v>Reserved</v>
+        <v>Taken</v>
       </c>
       <c r="G6" t="str">
-        <v>prof.bob@college.edu</v>
+        <v>alice@lsu.edu</v>
       </c>
       <c r="H6" t="str">
-        <v>photo-1762825185346-6re99.jpg</v>
+        <v>default.jpg</v>
       </c>
       <c r="I6" t="str">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
       </c>
       <c r="K6" t="str">
-        <v>alice@lsu.edu</v>
+        <v>james@lsu.edu</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="str">
-        <v>Watch</v>
+        <v>System Test Monitor</v>
       </c>
       <c r="C7" t="str">
-        <v>I have been using it for like seven months and it still working</v>
+        <v>27 inch LED monitor, works perfectly</v>
       </c>
       <c r="D7" t="str">
-        <v>electronics</v>
+        <v>Electronics</v>
       </c>
       <c r="E7" t="str">
         <v>Good</v>
@@ -626,13 +626,13 @@
         <v>Available</v>
       </c>
       <c r="G7" t="str">
-        <v>alice@college.edu</v>
+        <v>carlos@lsu.edu</v>
       </c>
       <c r="H7" t="str">
         <v>default.jpg</v>
       </c>
       <c r="I7" t="str">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -640,39 +640,106 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" t="str">
-        <v>book</v>
+        <v>System Test Bookshelf</v>
       </c>
       <c r="C8" t="str">
-        <v>this is a test book</v>
+        <v>Wooden bookshelf, 5 shelves</v>
       </c>
       <c r="D8" t="str">
-        <v>textbooks</v>
+        <v>Furniture</v>
       </c>
       <c r="E8" t="str">
+        <v>Good</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Pending Aproval</v>
+      </c>
+      <c r="G8" t="str">
+        <v>sarah@lsu.edu</v>
+      </c>
+      <c r="H8" t="str">
+        <v>default.jpg</v>
+      </c>
+      <c r="I8" t="str">
+        <v>9</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Integrity Test Item</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Testing data integrity</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Books</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Good</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Pending Aproval</v>
+      </c>
+      <c r="G9" t="str">
+        <v>james@lsu.edu</v>
+      </c>
+      <c r="H9" t="str">
+        <v>default.jpg</v>
+      </c>
+      <c r="I9" t="str">
+        <v>10</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Reservation Test Item</v>
+      </c>
+      <c r="C10" t="str">
+        <v>For reservation testing</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="E10" t="str">
         <v>Excellent</v>
       </c>
-      <c r="F8" t="str">
-        <v>Available</v>
-      </c>
-      <c r="G8" t="str">
-        <v>alice@lsu.edu</v>
-      </c>
-      <c r="H8" t="str">
-        <v>photo-1763270863374-7dpr8.jpg</v>
-      </c>
-      <c r="I8" t="str">
-        <v>7</v>
-      </c>
-      <c r="J8" t="b">
+      <c r="F10" t="str">
+        <v>Reserved</v>
+      </c>
+      <c r="G10" t="str">
+        <v>carlos@lsu.edu</v>
+      </c>
+      <c r="H10" t="str">
+        <v>default.jpg</v>
+      </c>
+      <c r="I10" t="str">
+        <v>11</v>
+      </c>
+      <c r="J10" t="b">
         <v>1</v>
+      </c>
+      <c r="K10" t="str">
+        <v>sarah@lsu.edu</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/items.xlsx
+++ b/server/items.xlsx
@@ -1,41 +1,146 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5951580e7ba5c835/Documents/GitHub/Swap-Shop/server/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_BBFF01259571FD51266002ED60108CC3A02C541F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F88BC28-7CCC-41AF-8DDA-7B279055A294}"/>
+  <bookViews>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Donor</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>ImageFolder</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>ReservedBy</t>
+  </si>
+  <si>
+    <t>Desk Lamp</t>
+  </si>
+  <si>
+    <t>Working well, I have just use for six months</t>
+  </si>
+  <si>
+    <t>electronics</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Reserved</t>
+  </si>
+  <si>
+    <t>alice@college.edu</t>
+  </si>
+  <si>
+    <t>photo-1762821083439.jpg,photo-1762821083443.jpeg</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>carlos@lsu.edu</t>
+  </si>
+  <si>
+    <t>Microwave</t>
+  </si>
+  <si>
+    <t>I have been using it for two years and still working good</t>
+  </si>
+  <si>
+    <t>Fair</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>photo-1762821913662-bqmb4.jpg</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Watch</t>
+  </si>
+  <si>
+    <t>I have been using it for like seven months and it still working</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>photo-1764196887952-beki6.jpg</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>alice@lsu.edu</t>
+  </si>
+  <si>
+    <t>English Textbook</t>
+  </si>
+  <si>
+    <t>English textbook for English Through Practice</t>
+  </si>
+  <si>
+    <t>textbooks</t>
+  </si>
+  <si>
+    <t>sarah@lsu.edu</t>
+  </si>
+  <si>
+    <t>photo-1764197629370-gov1r.jpg</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +170,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,350 +509,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Title</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Description</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Category</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Condition</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Status</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Donor</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Images</v>
-      </c>
-      <c r="I1" t="str">
-        <v>ImageFolder</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Approved</v>
-      </c>
-      <c r="K1" t="str">
-        <v>ReservedBy</v>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
-      <c r="B2" t="str">
-        <v>Desk Lamp</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Working well, I have just use for six months</v>
-      </c>
-      <c r="D2" t="str">
-        <v>electronics</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Excellent</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Available</v>
-      </c>
-      <c r="G2" t="str">
-        <v>alice@college.edu</v>
-      </c>
-      <c r="H2" t="str">
-        <v>photo-1762821083439.jpg,photo-1762821083443.jpeg</v>
-      </c>
-      <c r="I2" t="str">
-        <v>3</v>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
       </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
-      <c r="B3" t="str">
-        <v>Microwave</v>
-      </c>
-      <c r="C3" t="str">
-        <v>I have been using it for two years and still working good</v>
-      </c>
-      <c r="D3" t="str">
-        <v>electronics</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Fair</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Reserved</v>
-      </c>
-      <c r="G3" t="str">
-        <v>alice@college.edu</v>
-      </c>
-      <c r="H3" t="str">
-        <v>photo-1762821913662-bqmb4.jpg</v>
-      </c>
-      <c r="I3" t="str">
-        <v>4</v>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
       </c>
-      <c r="K3" t="str">
-        <v>alice@lsu.edu</v>
-      </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4" t="str">
-        <v>English Text Book</v>
-      </c>
-      <c r="C4" t="str">
-        <v>I read the book, and it was too good</v>
-      </c>
-      <c r="D4" t="str">
-        <v>textbooks</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Excellent</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Reserved</v>
-      </c>
-      <c r="G4" t="str">
-        <v>prof.bob@college.edu</v>
-      </c>
-      <c r="H4" t="str">
-        <v>photo-1762825185346-6re99.jpg</v>
-      </c>
-      <c r="I4" t="str">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
       </c>
-      <c r="K4" t="str">
-        <v>alice@lsu.edu</v>
+      <c r="K4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Watch</v>
-      </c>
-      <c r="C5" t="str">
-        <v>I have been using it for like seven months and it still working</v>
-      </c>
-      <c r="D5" t="str">
-        <v>electronics</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Good</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Available</v>
-      </c>
-      <c r="G5" t="str">
-        <v>alice@college.edu</v>
-      </c>
-      <c r="H5" t="str">
-        <v>default.jpg</v>
-      </c>
-      <c r="I5" t="str">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6" t="str">
-        <v>System Test Calculus Textbook</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Advanced Calculus - hardcover</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Books</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Excellent</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Taken</v>
-      </c>
-      <c r="G6" t="str">
-        <v>alice@lsu.edu</v>
-      </c>
-      <c r="H6" t="str">
-        <v>default.jpg</v>
-      </c>
-      <c r="I6" t="str">
-        <v>7</v>
-      </c>
-      <c r="J6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" t="str">
-        <v>james@lsu.edu</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>8</v>
-      </c>
-      <c r="B7" t="str">
-        <v>System Test Monitor</v>
-      </c>
-      <c r="C7" t="str">
-        <v>27 inch LED monitor, works perfectly</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Good</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Available</v>
-      </c>
-      <c r="G7" t="str">
-        <v>carlos@lsu.edu</v>
-      </c>
-      <c r="H7" t="str">
-        <v>default.jpg</v>
-      </c>
-      <c r="I7" t="str">
-        <v>8</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>9</v>
-      </c>
-      <c r="B8" t="str">
-        <v>System Test Bookshelf</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Wooden bookshelf, 5 shelves</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Furniture</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Good</v>
-      </c>
-      <c r="F8" t="str">
-        <v>Pending Aproval</v>
-      </c>
-      <c r="G8" t="str">
-        <v>sarah@lsu.edu</v>
-      </c>
-      <c r="H8" t="str">
-        <v>default.jpg</v>
-      </c>
-      <c r="I8" t="str">
-        <v>9</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>10</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Integrity Test Item</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Testing data integrity</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Books</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Good</v>
-      </c>
-      <c r="F9" t="str">
-        <v>Pending Aproval</v>
-      </c>
-      <c r="G9" t="str">
-        <v>james@lsu.edu</v>
-      </c>
-      <c r="H9" t="str">
-        <v>default.jpg</v>
-      </c>
-      <c r="I9" t="str">
-        <v>10</v>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>11</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Reservation Test Item</v>
-      </c>
-      <c r="C10" t="str">
-        <v>For reservation testing</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Excellent</v>
-      </c>
-      <c r="F10" t="str">
-        <v>Reserved</v>
-      </c>
-      <c r="G10" t="str">
-        <v>carlos@lsu.edu</v>
-      </c>
-      <c r="H10" t="str">
-        <v>default.jpg</v>
-      </c>
-      <c r="I10" t="str">
-        <v>11</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" t="str">
-        <v>sarah@lsu.edu</v>
-      </c>
-    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K10"/>
+    <ignoredError sqref="A1:K5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>